--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H2">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I2">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J2">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.07161265635342</v>
+        <v>27.29291933333333</v>
       </c>
       <c r="N2">
-        <v>5.07161265635342</v>
+        <v>81.878758</v>
       </c>
       <c r="O2">
-        <v>0.5233503093060546</v>
+        <v>0.8471655416169349</v>
       </c>
       <c r="P2">
-        <v>0.5233503093060546</v>
+        <v>0.8471655416169349</v>
       </c>
       <c r="Q2">
-        <v>93.59661945155027</v>
+        <v>1371.401764793967</v>
       </c>
       <c r="R2">
-        <v>93.59661945155027</v>
+        <v>12342.6158831457</v>
       </c>
       <c r="S2">
-        <v>0.02846099593194298</v>
+        <v>0.1096744129227444</v>
       </c>
       <c r="T2">
-        <v>0.02846099593194298</v>
+        <v>0.1096744129227444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H3">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I3">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J3">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.51487798516542</v>
+        <v>1.664698666666667</v>
       </c>
       <c r="N3">
-        <v>1.51487798516542</v>
+        <v>4.994096</v>
       </c>
       <c r="O3">
-        <v>0.1563234252726432</v>
+        <v>0.0516718395108896</v>
       </c>
       <c r="P3">
-        <v>0.1563234252726432</v>
+        <v>0.0516718395108896</v>
       </c>
       <c r="Q3">
-        <v>27.95707556953033</v>
+        <v>83.64699508449421</v>
       </c>
       <c r="R3">
-        <v>27.95707556953033</v>
+        <v>752.8229557604479</v>
       </c>
       <c r="S3">
-        <v>0.008501228128920912</v>
+        <v>0.006689458417039326</v>
       </c>
       <c r="T3">
-        <v>0.008501228128920912</v>
+        <v>0.006689458417039328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H4">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I4">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J4">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.10417460921582</v>
+        <v>0.01065033333333333</v>
       </c>
       <c r="N4">
-        <v>3.10417460921582</v>
+        <v>0.031951</v>
       </c>
       <c r="O4">
-        <v>0.3203262654213022</v>
+        <v>0.0003305837421251881</v>
       </c>
       <c r="P4">
-        <v>0.3203262654213022</v>
+        <v>0.0003305837421251881</v>
       </c>
       <c r="Q4">
-        <v>57.28754723528936</v>
+        <v>0.5351529365764444</v>
       </c>
       <c r="R4">
-        <v>57.28754723528936</v>
+        <v>4.816376429188</v>
       </c>
       <c r="S4">
-        <v>0.01742008053676084</v>
+        <v>4.279751247930026E-05</v>
       </c>
       <c r="T4">
-        <v>0.01742008053676084</v>
+        <v>4.279751247930027E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.975328138776</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H5">
-        <v>150.975328138776</v>
+        <v>150.742588</v>
       </c>
       <c r="I5">
-        <v>0.4448867835521751</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J5">
-        <v>0.4448867835521751</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.07161265635342</v>
+        <v>3.248480333333333</v>
       </c>
       <c r="N5">
-        <v>5.07161265635342</v>
+        <v>9.745441</v>
       </c>
       <c r="O5">
-        <v>0.5233503093060546</v>
+        <v>0.1008320351300503</v>
       </c>
       <c r="P5">
-        <v>0.5233503093060546</v>
+        <v>0.1008320351300502</v>
       </c>
       <c r="Q5">
-        <v>765.688384985727</v>
+        <v>163.2281108379231</v>
       </c>
       <c r="R5">
-        <v>765.688384985727</v>
+        <v>1469.052997541308</v>
       </c>
       <c r="S5">
-        <v>0.2328316357782066</v>
+        <v>0.01305375834289332</v>
       </c>
       <c r="T5">
-        <v>0.2328316357782066</v>
+        <v>0.01305375834289332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>150.975328138776</v>
+        <v>151.42276</v>
       </c>
       <c r="H6">
-        <v>150.975328138776</v>
+        <v>454.26828</v>
       </c>
       <c r="I6">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J6">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.51487798516542</v>
+        <v>27.29291933333333</v>
       </c>
       <c r="N6">
-        <v>1.51487798516542</v>
+        <v>81.878758</v>
       </c>
       <c r="O6">
-        <v>0.1563234252726432</v>
+        <v>0.8471655416169349</v>
       </c>
       <c r="P6">
-        <v>0.1563234252726432</v>
+        <v>0.8471655416169349</v>
       </c>
       <c r="Q6">
-        <v>228.7092009005571</v>
+        <v>4132.769173910694</v>
       </c>
       <c r="R6">
-        <v>228.7092009005571</v>
+        <v>37194.92256519624</v>
       </c>
       <c r="S6">
-        <v>0.06954622586340506</v>
+        <v>0.3305078384246984</v>
       </c>
       <c r="T6">
-        <v>0.06954622586340506</v>
+        <v>0.3305078384246984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>150.975328138776</v>
+        <v>151.42276</v>
       </c>
       <c r="H7">
-        <v>150.975328138776</v>
+        <v>454.26828</v>
       </c>
       <c r="I7">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J7">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.10417460921582</v>
+        <v>1.664698666666667</v>
       </c>
       <c r="N7">
-        <v>3.10417460921582</v>
+        <v>4.994096</v>
       </c>
       <c r="O7">
-        <v>0.3203262654213022</v>
+        <v>0.0516718395108896</v>
       </c>
       <c r="P7">
-        <v>0.3203262654213022</v>
+        <v>0.0516718395108896</v>
       </c>
       <c r="Q7">
-        <v>468.6537802264152</v>
+        <v>252.0732666749867</v>
       </c>
       <c r="R7">
-        <v>468.6537802264152</v>
+        <v>2268.65940007488</v>
       </c>
       <c r="S7">
-        <v>0.1425089219105635</v>
+        <v>0.02015892661495223</v>
       </c>
       <c r="T7">
-        <v>0.1425089219105635</v>
+        <v>0.02015892661495223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.4777355430884</v>
+        <v>151.42276</v>
       </c>
       <c r="H8">
-        <v>71.4777355430884</v>
+        <v>454.26828</v>
       </c>
       <c r="I8">
-        <v>0.2106271286400358</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J8">
-        <v>0.2106271286400358</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.07161265635342</v>
+        <v>0.01065033333333333</v>
       </c>
       <c r="N8">
-        <v>5.07161265635342</v>
+        <v>0.031951</v>
       </c>
       <c r="O8">
-        <v>0.5233503093060546</v>
+        <v>0.0003305837421251881</v>
       </c>
       <c r="P8">
-        <v>0.5233503093060546</v>
+        <v>0.0003305837421251881</v>
       </c>
       <c r="Q8">
-        <v>362.5073882278098</v>
+        <v>1.612702868253333</v>
       </c>
       <c r="R8">
-        <v>362.5073882278098</v>
+        <v>14.51432581428</v>
       </c>
       <c r="S8">
-        <v>0.1102317729220089</v>
+        <v>0.000128971862830498</v>
       </c>
       <c r="T8">
-        <v>0.1102317729220089</v>
+        <v>0.000128971862830498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.4777355430884</v>
+        <v>151.42276</v>
       </c>
       <c r="H9">
-        <v>71.4777355430884</v>
+        <v>454.26828</v>
       </c>
       <c r="I9">
-        <v>0.2106271286400358</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J9">
-        <v>0.2106271286400358</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.51487798516542</v>
+        <v>3.248480333333333</v>
       </c>
       <c r="N9">
-        <v>1.51487798516542</v>
+        <v>9.745441</v>
       </c>
       <c r="O9">
-        <v>0.1563234252726432</v>
+        <v>0.1008320351300503</v>
       </c>
       <c r="P9">
-        <v>0.1563234252726432</v>
+        <v>0.1008320351300502</v>
       </c>
       <c r="Q9">
-        <v>108.2800480037005</v>
+        <v>491.8938578790534</v>
       </c>
       <c r="R9">
-        <v>108.2800480037005</v>
+        <v>4427.04472091148</v>
       </c>
       <c r="S9">
-        <v>0.03292595420435204</v>
+        <v>0.03933797627225161</v>
       </c>
       <c r="T9">
-        <v>0.03292595420435204</v>
+        <v>0.0393379762722516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.4777355430884</v>
+        <v>85.147481</v>
       </c>
       <c r="H10">
-        <v>71.4777355430884</v>
+        <v>255.442443</v>
       </c>
       <c r="I10">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="J10">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.10417460921582</v>
+        <v>27.29291933333333</v>
       </c>
       <c r="N10">
-        <v>3.10417460921582</v>
+        <v>81.878758</v>
       </c>
       <c r="O10">
-        <v>0.3203262654213022</v>
+        <v>0.8471655416169349</v>
       </c>
       <c r="P10">
-        <v>0.3203262654213022</v>
+        <v>0.8471655416169349</v>
       </c>
       <c r="Q10">
-        <v>221.8793717970982</v>
+        <v>2323.923330369533</v>
       </c>
       <c r="R10">
-        <v>221.8793717970982</v>
+        <v>20915.30997332579</v>
       </c>
       <c r="S10">
-        <v>0.06746940151367485</v>
+        <v>0.185849933607194</v>
       </c>
       <c r="T10">
-        <v>0.06746940151367485</v>
+        <v>0.185849933607194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>98.4486738732672</v>
+        <v>85.147481</v>
       </c>
       <c r="H11">
-        <v>98.4486738732672</v>
+        <v>255.442443</v>
       </c>
       <c r="I11">
-        <v>0.2901037832101644</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="J11">
-        <v>0.2901037832101644</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.07161265635342</v>
+        <v>1.664698666666667</v>
       </c>
       <c r="N11">
-        <v>5.07161265635342</v>
+        <v>4.994096</v>
       </c>
       <c r="O11">
-        <v>0.5233503093060546</v>
+        <v>0.0516718395108896</v>
       </c>
       <c r="P11">
-        <v>0.5233503093060546</v>
+        <v>0.0516718395108896</v>
       </c>
       <c r="Q11">
-        <v>499.2935404168721</v>
+        <v>141.7448980907253</v>
       </c>
       <c r="R11">
-        <v>499.2935404168721</v>
+        <v>1275.704082816528</v>
       </c>
       <c r="S11">
-        <v>0.1518259046738961</v>
+        <v>0.01133569234193749</v>
       </c>
       <c r="T11">
-        <v>0.1518259046738961</v>
+        <v>0.01133569234193749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>98.4486738732672</v>
+        <v>85.147481</v>
       </c>
       <c r="H12">
-        <v>98.4486738732672</v>
+        <v>255.442443</v>
       </c>
       <c r="I12">
-        <v>0.2901037832101644</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="J12">
-        <v>0.2901037832101644</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.51487798516542</v>
+        <v>0.01065033333333333</v>
       </c>
       <c r="N12">
-        <v>1.51487798516542</v>
+        <v>0.031951</v>
       </c>
       <c r="O12">
-        <v>0.1563234252726432</v>
+        <v>0.0003305837421251881</v>
       </c>
       <c r="P12">
-        <v>0.1563234252726432</v>
+        <v>0.0003305837421251881</v>
       </c>
       <c r="Q12">
-        <v>149.1377287193425</v>
+        <v>0.9068490551436666</v>
       </c>
       <c r="R12">
-        <v>149.1377287193425</v>
+        <v>8.161641496293001</v>
       </c>
       <c r="S12">
-        <v>0.04535001707596523</v>
+        <v>7.252297633390404E-05</v>
       </c>
       <c r="T12">
-        <v>0.04535001707596523</v>
+        <v>7.252297633390404E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>98.4486738732672</v>
+        <v>85.147481</v>
       </c>
       <c r="H13">
-        <v>98.4486738732672</v>
+        <v>255.442443</v>
       </c>
       <c r="I13">
-        <v>0.2901037832101644</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="J13">
-        <v>0.2901037832101644</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.10417460921582</v>
+        <v>3.248480333333333</v>
       </c>
       <c r="N13">
-        <v>3.10417460921582</v>
+        <v>9.745441</v>
       </c>
       <c r="O13">
-        <v>0.3203262654213022</v>
+        <v>0.1008320351300503</v>
       </c>
       <c r="P13">
-        <v>0.3203262654213022</v>
+        <v>0.1008320351300502</v>
       </c>
       <c r="Q13">
-        <v>305.6018737483649</v>
+        <v>276.5999174613736</v>
       </c>
       <c r="R13">
-        <v>305.6018737483649</v>
+        <v>2489.399257152363</v>
       </c>
       <c r="S13">
-        <v>0.09292786146030302</v>
+        <v>0.02212038393184746</v>
       </c>
       <c r="T13">
-        <v>0.09292786146030302</v>
+        <v>0.02212038393184746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>101.3126446666667</v>
+      </c>
+      <c r="H14">
+        <v>303.937934</v>
+      </c>
+      <c r="I14">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="J14">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>27.29291933333333</v>
+      </c>
+      <c r="N14">
+        <v>81.878758</v>
+      </c>
+      <c r="O14">
+        <v>0.8471655416169349</v>
+      </c>
+      <c r="P14">
+        <v>0.8471655416169349</v>
+      </c>
+      <c r="Q14">
+        <v>2765.117838333997</v>
+      </c>
+      <c r="R14">
+        <v>24886.06054500598</v>
+      </c>
+      <c r="S14">
+        <v>0.221133356662298</v>
+      </c>
+      <c r="T14">
+        <v>0.221133356662298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>101.3126446666667</v>
+      </c>
+      <c r="H15">
+        <v>303.937934</v>
+      </c>
+      <c r="I15">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="J15">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.664698666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.994096</v>
+      </c>
+      <c r="O15">
+        <v>0.0516718395108896</v>
+      </c>
+      <c r="P15">
+        <v>0.0516718395108896</v>
+      </c>
+      <c r="Q15">
+        <v>168.6550244930738</v>
+      </c>
+      <c r="R15">
+        <v>1517.895220437664</v>
+      </c>
+      <c r="S15">
+        <v>0.01348776213696055</v>
+      </c>
+      <c r="T15">
+        <v>0.01348776213696055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>101.3126446666667</v>
+      </c>
+      <c r="H16">
+        <v>303.937934</v>
+      </c>
+      <c r="I16">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="J16">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.01065033333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.031951</v>
+      </c>
+      <c r="O16">
+        <v>0.0003305837421251881</v>
+      </c>
+      <c r="P16">
+        <v>0.0003305837421251881</v>
+      </c>
+      <c r="Q16">
+        <v>1.079013436581556</v>
+      </c>
+      <c r="R16">
+        <v>9.711120929234001</v>
+      </c>
+      <c r="S16">
+        <v>8.629139048148585E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.629139048148585E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>101.3126446666667</v>
+      </c>
+      <c r="H17">
+        <v>303.937934</v>
+      </c>
+      <c r="I17">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="J17">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.248480333333333</v>
+      </c>
+      <c r="N17">
+        <v>9.745441</v>
+      </c>
+      <c r="O17">
+        <v>0.1008320351300503</v>
+      </c>
+      <c r="P17">
+        <v>0.1008320351300502</v>
+      </c>
+      <c r="Q17">
+        <v>329.112133717655</v>
+      </c>
+      <c r="R17">
+        <v>2962.009203458894</v>
+      </c>
+      <c r="S17">
+        <v>0.02631991658305787</v>
+      </c>
+      <c r="T17">
+        <v>0.02631991658305787</v>
       </c>
     </row>
   </sheetData>
